--- a/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jep2963\Documents\R\clubSandwich\paper_ClusterRobustTesting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14200" yWindow="0" windowWidth="34640" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Review t-test" sheetId="2" r:id="rId1"/>
     <sheet name="data entry" sheetId="1" r:id="rId2"/>
+    <sheet name="extra" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Simulation Review t-test'!$B$2:$S$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Simulation Review t-test'!$B$2:$R$26</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
   <si>
     <t>Article</t>
   </si>
@@ -447,18 +443,12 @@
     <t>q</t>
   </si>
   <si>
-    <t>Table: Review of simulation study conditions tested in previous literature</t>
-  </si>
-  <si>
     <t>TP 2015</t>
   </si>
   <si>
     <t>RE + C (15)</t>
   </si>
   <si>
-    <t>t-test</t>
-  </si>
-  <si>
     <t>F-test</t>
   </si>
   <si>
@@ -481,6 +471,36 @@
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Data generation</t>
+  </si>
+  <si>
+    <t>Error structure</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>c(15%)</t>
+  </si>
+  <si>
+    <t>c(10%)</t>
+  </si>
+  <si>
+    <t>c(6%)</t>
+  </si>
+  <si>
+    <t>o(15%)</t>
+  </si>
+  <si>
+    <t>c(10%); o</t>
+  </si>
+  <si>
+    <t>c(30%); o(30%)</t>
   </si>
 </sst>
 </file>
@@ -608,7 +628,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -656,8 +676,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -751,6 +797,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,62 +837,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -839,6 +904,19 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -862,6 +940,19 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1199,392 +1290,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:S33"/>
+  <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="5.875" customWidth="1"/>
-    <col min="4" max="4" width="6.125" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="12" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="8.125" style="23" customWidth="1"/>
-    <col min="17" max="17" width="7.875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="7.375" style="23" customWidth="1"/>
-    <col min="19" max="19" width="8.375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="23" customWidth="1"/>
+    <col min="16" max="16" width="6" style="23" customWidth="1"/>
+    <col min="17" max="17" width="5.5" style="23" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E4" s="34" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="2:18" ht="16">
+      <c r="D4" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="43" t="s">
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="44"/>
+      <c r="N4" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1">
+      <c r="B5" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="48"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="2:18" ht="23" customHeight="1" thickBot="1">
+      <c r="B6" s="43"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5" s="37"/>
-    </row>
-    <row r="6" spans="2:19" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>61</v>
+      </c>
       <c r="P6" s="24" t="s">
         <v>60</v>
       </c>
       <c r="Q6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="32" t="s">
         <v>62</v>
       </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
       <c r="D7" s="12">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="25">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="O7" s="25">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="P7" s="25">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12">
-        <v>4</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="I8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="26">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O8" s="26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P8" s="26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0.105</v>
+      </c>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P7" s="25">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="R7" s="25">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="S7" s="25">
-        <v>0.16189999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-      <c r="C8" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="13">
-        <v>2</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="26">
-        <v>4.7E-2</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R8" s="26">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="S8" s="26">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
-        <v>30</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="27">
+      <c r="N9" s="27">
         <f>1-0.991</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="O9" s="27">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="R9" s="27">
+      <c r="P9" s="27">
         <f>1-0.881</f>
         <v>0.11899999999999999</v>
       </c>
-      <c r="S9" s="27">
+      <c r="Q9" s="27">
         <f>1-0.783</f>
         <v>0.21699999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="50"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="52"/>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
       <c r="D10" s="17">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E10" s="17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
-        <v>1</v>
+      <c r="G10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="28">
+      <c r="N10" s="28">
         <f>1-0.997</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="O10" s="28">
         <f>1-0.872</f>
         <v>0.128</v>
       </c>
-      <c r="R10" s="28">
+      <c r="P10" s="28">
         <f>1-0.926</f>
         <v>7.3999999999999955E-2</v>
       </c>
-      <c r="S10" s="28">
+      <c r="Q10" s="28">
         <f>1-0.682</f>
         <v>0.31799999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-      <c r="C11" s="50"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="52"/>
+      <c r="C11" s="17">
+        <v>3</v>
+      </c>
       <c r="D11" s="17">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E11" s="17">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F11" s="17">
         <v>1</v>
       </c>
-      <c r="G11" s="17">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
+      <c r="G11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="18" t="s">
         <v>10</v>
@@ -1592,109 +1665,103 @@
       <c r="K11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P11" s="28">
+      <c r="N11" s="28">
         <f>1-0.95</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="O11" s="28">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="R11" s="28">
+      <c r="P11" s="28">
         <v>0.05</v>
       </c>
-      <c r="S11" s="28">
+      <c r="Q11" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="17">
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="52"/>
+      <c r="C12" s="17">
         <v>4</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="17">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1</v>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="28">
+      <c r="N12" s="28">
         <f>1-0.974</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="O12" s="28">
         <f>1-0.942</f>
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="R12" s="28">
+      <c r="P12" s="28">
         <f>1-0.918</f>
         <v>8.1999999999999962E-2</v>
       </c>
-      <c r="S12" s="28">
+      <c r="Q12" s="28">
         <f>1-0.872</f>
         <v>0.128</v>
       </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-      <c r="C13" s="50"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="52"/>
+      <c r="C13" s="17">
+        <v>5</v>
+      </c>
       <c r="D13" s="17">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E13" s="17">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F13" s="17">
-        <v>6</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="18" t="s">
         <v>10</v>
@@ -1702,106 +1769,100 @@
       <c r="K13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="28">
+      <c r="N13" s="28">
         <f>1-0.952</f>
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="O13" s="28">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="R13" s="28">
+      <c r="P13" s="28">
         <v>0.06</v>
       </c>
-      <c r="S13" s="28">
+      <c r="Q13" s="28">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="50"/>
+      <c r="R13"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="52"/>
+      <c r="C14" s="17">
+        <v>5</v>
+      </c>
       <c r="D14" s="17">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E14" s="17">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F14" s="17">
-        <v>6</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="28">
+      <c r="N14" s="28">
         <f>1-0.987</f>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="O14" s="28">
         <f>1-0.949</f>
         <v>5.1000000000000045E-2</v>
       </c>
-      <c r="R14" s="28">
+      <c r="P14" s="28">
         <f>1-0.849</f>
         <v>0.15100000000000002</v>
       </c>
-      <c r="S14" s="28">
+      <c r="Q14" s="28">
         <f>1-0.775</f>
         <v>0.22499999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="53"/>
+      <c r="R14"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="53"/>
+      <c r="C15" s="12">
+        <v>5</v>
+      </c>
       <c r="D15" s="12">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E15" s="12">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="F15" s="12">
-        <v>6</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>10</v>
@@ -1810,846 +1871,511 @@
         <v>10</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="L15" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="M15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="25">
+      <c r="N15" s="25">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="O15" s="25">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="R15" s="25">
+      <c r="P15" s="25">
         <f>1-0.873</f>
         <v>0.127</v>
       </c>
-      <c r="S15" s="25">
+      <c r="Q15" s="25">
         <v>0.127</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="52" t="s">
+      <c r="R15"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="I16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="27">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="O16" s="27">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="P16" s="27">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="R16"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="52"/>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="29">
+        <v>1.9E-3</v>
+      </c>
+      <c r="O17" s="29">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="P17" s="28">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="R17"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="52"/>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="29">
+        <v>1.4E-3</v>
+      </c>
+      <c r="O18" s="29">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="P18" s="28">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="Q18" s="28">
+        <v>0.2344</v>
+      </c>
+      <c r="R18"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="52"/>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="15" t="s">
+      <c r="K19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="M19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="N19" s="29">
+        <v>1.49E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="P19" s="28">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="Q19" s="28">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="R19"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="52"/>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="27">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="R16" s="27">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="S16" s="27">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="H20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="29">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="O20" s="29">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="P20" s="28">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="52"/>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="17" t="s">
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="N21" s="29">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="O21" s="29">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="P21" s="28">
+        <v>1.77E-2</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0.3352</v>
+      </c>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="52"/>
+      <c r="C22" s="17">
+        <v>2</v>
+      </c>
+      <c r="D22" s="17">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="17">
+        <v>4</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="29">
-        <v>1.9E-3</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="R17" s="28">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="S17" s="28">
-        <v>0.15160000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="H22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="29">
+        <v>1.43E-2</v>
+      </c>
+      <c r="O22" s="29">
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="P22" s="28">
+        <v>1.38E-2</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>0.1249</v>
+      </c>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="2:18" ht="16" thickBot="1">
+      <c r="B23" s="54"/>
+      <c r="C23" s="22">
+        <v>2</v>
+      </c>
+      <c r="D23" s="22">
+        <v>20</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="F23" s="22">
+        <v>4</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="M23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="O18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="29">
-        <v>1.4E-3</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="R18" s="28">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="S18" s="28">
-        <v>0.2344</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="29">
-        <v>1.49E-2</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>5.1299999999999998E-2</v>
-      </c>
-      <c r="R19" s="28">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="S19" s="28">
-        <v>0.13589999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="29">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="R20" s="28">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="S20" s="28">
-        <v>9.3799999999999994E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="29">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>0.10630000000000001</v>
-      </c>
-      <c r="R21" s="28">
-        <v>1.77E-2</v>
-      </c>
-      <c r="S21" s="28">
-        <v>0.3352</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17">
-        <v>20</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="17">
-        <v>4</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" s="29">
-        <v>1.43E-2</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="R22" s="28">
-        <v>1.38E-2</v>
-      </c>
-      <c r="S22" s="28">
-        <v>0.1249</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="46"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="22">
-        <v>2</v>
-      </c>
-      <c r="E23" s="22">
-        <v>20</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="22">
-        <v>4</v>
-      </c>
-      <c r="H23" s="22">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="30">
+      <c r="N23" s="30">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="O23" s="30">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="R23" s="24">
+      <c r="P23" s="24">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="S23" s="24">
+      <c r="Q23" s="24">
         <v>5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="17">
-        <v>5</v>
-      </c>
-      <c r="H24" s="17">
-        <v>5</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="17">
-        <v>5</v>
-      </c>
-      <c r="H25" s="17">
-        <v>4</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O25" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="17">
-        <v>5</v>
-      </c>
-      <c r="H26" s="17">
-        <v>3</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O26" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="17">
-        <v>5</v>
-      </c>
-      <c r="H27" s="17">
-        <v>2</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="17">
-        <v>4</v>
-      </c>
-      <c r="H28" s="17">
-        <v>4</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="17">
-        <v>3</v>
-      </c>
-      <c r="H29" s="17">
-        <v>3</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N29" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O29" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="46"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="17">
-        <v>2</v>
-      </c>
-      <c r="H30" s="17">
-        <v>2</v>
-      </c>
-      <c r="I30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-    </row>
-    <row r="31" spans="2:19" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="47" t="s">
+      <c r="R23"/>
+    </row>
+    <row r="24" spans="2:18" ht="8" customHeight="1">
+      <c r="B24" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-    </row>
-    <row r="33" spans="2:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="2:18" ht="83" customHeight="1">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="2:18" ht="45" customHeight="1">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B7:B23"/>
+  <mergeCells count="19">
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B31:S33"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B24:R25"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C9:C15"/>
-    <mergeCell ref="C16:C23"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="74" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="Q10 Q12" formula="1"/>
+    <ignoredError sqref="O10 O12" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2663,54 +2389,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="5"/>
-    <col min="6" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="9" width="10.875" style="2"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="9" width="11" style="2"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
-    <col min="11" max="12" width="10.875" style="9"/>
+    <col min="11" max="12" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54" t="s">
+    <row r="3" spans="2:20">
+      <c r="G3" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="55"/>
+      <c r="O3" s="56"/>
       <c r="P3" t="s">
         <v>56</v>
       </c>
@@ -2718,7 +2444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2774,7 +2500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -2818,7 +2544,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2859,7 +2585,7 @@
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2900,7 +2626,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2941,7 +2667,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2982,7 +2708,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="C10">
         <v>1</v>
       </c>
@@ -3023,7 +2749,7 @@
         <v>0.3352</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="C11">
         <v>2</v>
       </c>
@@ -3070,7 +2796,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="C12">
         <v>2</v>
       </c>
@@ -3113,7 +2839,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="30">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -3172,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
@@ -3180,7 +2906,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="30">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -3242,7 +2968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20">
       <c r="C16">
         <v>2</v>
       </c>
@@ -3301,7 +3027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="C17">
         <v>3</v>
       </c>
@@ -3350,7 +3076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="C18">
         <v>4</v>
       </c>
@@ -3409,7 +3135,7 @@
         <v>6.2999999999999945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="C19">
         <v>5</v>
       </c>
@@ -3456,7 +3182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="C20">
         <v>5</v>
       </c>
@@ -3506,7 +3232,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="C21">
         <v>5</v>
       </c>
@@ -3554,13 +3280,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="30">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3635,4 +3361,457 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B20:S35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="20" spans="2:19" ht="16">
+      <c r="E20" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="48"/>
+    </row>
+    <row r="22" spans="2:19" ht="16" thickBot="1">
+      <c r="B22" s="50"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="50"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="16" thickBot="1"/>
+    <row r="24" spans="2:19">
+      <c r="B24" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="17">
+        <v>5</v>
+      </c>
+      <c r="H24" s="17">
+        <v>5</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="B25" s="59"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="17">
+        <v>5</v>
+      </c>
+      <c r="H25" s="17">
+        <v>4</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" s="59"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="17">
+        <v>5</v>
+      </c>
+      <c r="H26" s="17">
+        <v>3</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" s="59"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="17">
+        <v>5</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="59"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="17">
+        <v>4</v>
+      </c>
+      <c r="H28" s="17">
+        <v>4</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" s="59"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="17">
+        <v>3</v>
+      </c>
+      <c r="H29" s="17">
+        <v>3</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+    </row>
+    <row r="30" spans="2:19" ht="16" thickBot="1">
+      <c r="B30" s="60"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="17">
+        <v>2</v>
+      </c>
+      <c r="H30" s="17">
+        <v>2</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:M22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jep2963\Documents\R\clubSandwich\paper_ClusterRobustTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="0" windowWidth="34640" windowHeight="18600" tabRatio="500"/>
+    <workbookView xWindow="14205" yWindow="0" windowWidth="34635" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Review t-test" sheetId="2" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Simulation Review t-test'!$B$2:$R$26</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="96">
   <si>
     <t>Article</t>
   </si>
@@ -501,6 +506,9 @@
   </si>
   <si>
     <t>c(30%); o(30%)</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -810,18 +818,30 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,24 +863,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,9 +885,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1290,114 +1298,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="6.625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="6.125" style="23" customWidth="1"/>
     <col min="16" max="16" width="6" style="23" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="23" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:18" ht="16">
-      <c r="D4" s="44" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="46" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="44" t="s">
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45" t="s">
+      <c r="M4" s="48"/>
+      <c r="N4" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47" t="s">
+      <c r="H5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="49" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="48"/>
-      <c r="R5"/>
-    </row>
-    <row r="6" spans="2:18" ht="23" customHeight="1" thickBot="1">
-      <c r="B6" s="43"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="43"/>
+      <c r="Q5" s="52"/>
+    </row>
+    <row r="6" spans="2:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="45"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="21" t="s">
         <v>79</v>
       </c>
@@ -1410,8 +1417,8 @@
       <c r="K6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="43"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="24" t="s">
         <v>60</v>
       </c>
@@ -1426,7 +1433,7 @@
       </c>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>62</v>
       </c>
@@ -1464,20 +1471,19 @@
         <v>15</v>
       </c>
       <c r="N7" s="25">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="O7" s="25">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="P7" s="25">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="O7" s="25">
+      <c r="Q7" s="25">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="P7" s="25">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>0.16189999999999999</v>
-      </c>
-      <c r="R7"/>
-    </row>
-    <row r="8" spans="2:18">
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>63</v>
       </c>
@@ -1515,21 +1521,20 @@
         <v>16</v>
       </c>
       <c r="N8" s="26">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0.105</v>
+      </c>
+      <c r="P8" s="26">
         <v>4.7E-2</v>
       </c>
-      <c r="O8" s="26">
+      <c r="Q8" s="26">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P8" s="26">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>0.105</v>
-      </c>
-      <c r="R8"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="51" t="s">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -1566,25 +1571,24 @@
         <v>15</v>
       </c>
       <c r="N9" s="27">
+        <f>1-0.881</f>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O9" s="27">
+        <f>1-0.783</f>
+        <v>0.21699999999999997</v>
+      </c>
+      <c r="P9" s="27">
         <f>1-0.991</f>
         <v>9.000000000000008E-3</v>
       </c>
-      <c r="O9" s="27">
+      <c r="Q9" s="27">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P9" s="27">
-        <f>1-0.881</f>
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="Q9" s="27">
-        <f>1-0.783</f>
-        <v>0.21699999999999997</v>
-      </c>
-      <c r="R9"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="52"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="41"/>
       <c r="C10" s="17">
         <v>2</v>
       </c>
@@ -1619,25 +1623,24 @@
         <v>15</v>
       </c>
       <c r="N10" s="28">
+        <f>1-0.926</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="O10" s="28">
+        <f>1-0.682</f>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="P10" s="28">
         <f>1-0.997</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="O10" s="28">
+      <c r="Q10" s="28">
         <f>1-0.872</f>
         <v>0.128</v>
       </c>
-      <c r="P10" s="28">
-        <f>1-0.926</f>
-        <v>7.3999999999999955E-2</v>
-      </c>
-      <c r="Q10" s="28">
-        <f>1-0.682</f>
-        <v>0.31799999999999995</v>
-      </c>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="52"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="41"/>
       <c r="C11" s="17">
         <v>3</v>
       </c>
@@ -1672,23 +1675,22 @@
         <v>15</v>
       </c>
       <c r="N11" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="O11" s="28">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P11" s="28">
         <f>1-0.95</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O11" s="28">
+      <c r="Q11" s="28">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P11" s="28">
-        <v>0.05</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="52"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
       <c r="C12" s="17">
         <v>4</v>
       </c>
@@ -1723,25 +1725,24 @@
         <v>24</v>
       </c>
       <c r="N12" s="28">
+        <f>1-0.918</f>
+        <v>8.1999999999999962E-2</v>
+      </c>
+      <c r="O12" s="28">
+        <f>1-0.872</f>
+        <v>0.128</v>
+      </c>
+      <c r="P12" s="28">
         <f>1-0.974</f>
         <v>2.6000000000000023E-2</v>
       </c>
-      <c r="O12" s="28">
+      <c r="Q12" s="28">
         <f>1-0.942</f>
         <v>5.8000000000000052E-2</v>
       </c>
-      <c r="P12" s="28">
-        <f>1-0.918</f>
-        <v>8.1999999999999962E-2</v>
-      </c>
-      <c r="Q12" s="28">
-        <f>1-0.872</f>
-        <v>0.128</v>
-      </c>
-      <c r="R12"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="52"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
       <c r="C13" s="17">
         <v>5</v>
       </c>
@@ -1776,23 +1777,22 @@
         <v>24</v>
       </c>
       <c r="N13" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="O13" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="P13" s="28">
         <f>1-0.952</f>
         <v>4.8000000000000043E-2</v>
       </c>
-      <c r="O13" s="28">
+      <c r="Q13" s="28">
         <f>1-0.947</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="P13" s="28">
-        <v>0.06</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>0.06</v>
-      </c>
-      <c r="R13"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="52"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -1827,25 +1827,24 @@
         <v>24</v>
       </c>
       <c r="N14" s="28">
+        <f>1-0.849</f>
+        <v>0.15100000000000002</v>
+      </c>
+      <c r="O14" s="28">
+        <f>1-0.775</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="P14" s="28">
         <f>1-0.987</f>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="O14" s="28">
+      <c r="Q14" s="28">
         <f>1-0.949</f>
         <v>5.1000000000000045E-2</v>
       </c>
-      <c r="P14" s="28">
-        <f>1-0.849</f>
-        <v>0.15100000000000002</v>
-      </c>
-      <c r="Q14" s="28">
-        <f>1-0.775</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="53"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="42"/>
       <c r="C15" s="12">
         <v>5</v>
       </c>
@@ -1880,24 +1879,23 @@
         <v>24</v>
       </c>
       <c r="N15" s="25">
+        <f>1-0.873</f>
+        <v>0.127</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0.127</v>
+      </c>
+      <c r="P15" s="25">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="O15" s="25">
+      <c r="Q15" s="25">
         <f>1-0.971</f>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="P15" s="25">
-        <f>1-0.873</f>
-        <v>0.127</v>
-      </c>
-      <c r="Q15" s="25">
-        <v>0.127</v>
-      </c>
-      <c r="R15"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="51" t="s">
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="15">
@@ -1934,21 +1932,20 @@
         <v>66</v>
       </c>
       <c r="N16" s="27">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="O16" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="P16" s="27">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="O16" s="27">
+      <c r="Q16" s="27">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="P16" s="27">
-        <v>4.0099999999999997E-2</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>0.06</v>
-      </c>
-      <c r="R16"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="52"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
       <c r="C17" s="17">
         <v>1</v>
       </c>
@@ -1982,22 +1979,21 @@
       <c r="M17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="28">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="O17" s="28">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="P17" s="29">
         <v>1.9E-3</v>
       </c>
-      <c r="O17" s="29">
+      <c r="Q17" s="29">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="P17" s="28">
-        <v>8.4099999999999994E-2</v>
-      </c>
-      <c r="Q17" s="28">
-        <v>0.15160000000000001</v>
-      </c>
-      <c r="R17"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="52"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
       <c r="C18" s="17">
         <v>1</v>
       </c>
@@ -2031,22 +2027,21 @@
       <c r="M18" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="28">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="O18" s="28">
+        <v>0.2344</v>
+      </c>
+      <c r="P18" s="29">
         <v>1.4E-3</v>
       </c>
-      <c r="O18" s="29">
+      <c r="Q18" s="29">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="P18" s="28">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="Q18" s="28">
-        <v>0.2344</v>
-      </c>
-      <c r="R18"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="52"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
       <c r="C19" s="17">
         <v>1</v>
       </c>
@@ -2080,22 +2075,21 @@
       <c r="M19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="28">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="O19" s="28">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="P19" s="29">
         <v>1.49E-2</v>
       </c>
-      <c r="O19" s="29">
+      <c r="Q19" s="29">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="P19" s="28">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="Q19" s="28">
-        <v>0.13589999999999999</v>
-      </c>
-      <c r="R19"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="52"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -2129,22 +2123,21 @@
       <c r="M20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="28">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="O20" s="28">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="P20" s="29">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="O20" s="29">
+      <c r="Q20" s="29">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="P20" s="28">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="Q20" s="28">
-        <v>9.3799999999999994E-2</v>
-      </c>
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="52"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
       <c r="C21" s="17">
         <v>1</v>
       </c>
@@ -2178,22 +2171,21 @@
       <c r="M21" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="28">
+        <v>1.77E-2</v>
+      </c>
+      <c r="O21" s="28">
+        <v>0.3352</v>
+      </c>
+      <c r="P21" s="29">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="O21" s="29">
+      <c r="Q21" s="29">
         <v>0.10630000000000001</v>
       </c>
-      <c r="P21" s="28">
-        <v>1.77E-2</v>
-      </c>
-      <c r="Q21" s="28">
-        <v>0.3352</v>
-      </c>
-      <c r="R21"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="52"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
       <c r="C22" s="17">
         <v>2</v>
       </c>
@@ -2227,22 +2219,21 @@
       <c r="M22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="28">
+        <v>1.38E-2</v>
+      </c>
+      <c r="O22" s="28">
+        <v>0.1249</v>
+      </c>
+      <c r="P22" s="29">
         <v>1.43E-2</v>
       </c>
-      <c r="O22" s="29">
+      <c r="Q22" s="29">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="P22" s="28">
-        <v>1.38E-2</v>
-      </c>
-      <c r="Q22" s="28">
-        <v>0.1249</v>
-      </c>
-      <c r="R22"/>
-    </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
-      <c r="B23" s="54"/>
+    </row>
+    <row r="23" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="43"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -2276,61 +2267,60 @@
       <c r="M23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="24">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="O23" s="24">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="P23" s="30">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="O23" s="30">
+      <c r="Q23" s="30">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="P23" s="24">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="Q23" s="24">
-        <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="R23"/>
-    </row>
-    <row r="24" spans="2:18" ht="8" customHeight="1">
-      <c r="B24" s="40" t="s">
+    </row>
+    <row r="24" spans="2:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="2:18" ht="83" customHeight="1">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-    </row>
-    <row r="26" spans="2:18" ht="45" customHeight="1">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+    </row>
+    <row r="25" spans="2:18" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+    </row>
+    <row r="26" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2351,32 +2341,29 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B24:R25"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B24:R25"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="74" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="O10 O12" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -2393,19 +2380,19 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="9" width="11" style="2"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2419,7 +2406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G3" s="55" t="s">
         <v>1</v>
       </c>
@@ -2444,7 +2431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -2544,7 +2531,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2585,7 +2572,7 @@
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2626,7 +2613,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2667,7 +2654,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2708,7 +2695,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -2749,7 +2736,7 @@
         <v>0.3352</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -2796,7 +2783,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2</v>
       </c>
@@ -2839,7 +2826,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="30">
+    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -2898,7 +2885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
@@ -2906,7 +2893,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="30">
+    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2968,7 +2955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -3027,7 +3014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -3076,7 +3063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -3135,7 +3122,7 @@
         <v>6.2999999999999945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -3182,7 +3169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -3232,7 +3219,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -3280,13 +3267,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="30">
+    <row r="23" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3371,89 +3358,89 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="20" spans="2:19" ht="16">
-      <c r="E20" s="44" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="46" t="s">
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="61" t="s">
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62" t="s">
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="49" t="s">
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47" t="s">
+      <c r="I21" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="49" t="s">
+      <c r="L21" s="51"/>
+      <c r="M21" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="48" t="s">
+      <c r="P21" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48" t="s">
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="48"/>
-    </row>
-    <row r="22" spans="2:19" ht="16" thickBot="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="S21" s="52"/>
+    </row>
+    <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
       <c r="I22" s="21" t="s">
         <v>79</v>
       </c>
@@ -3466,9 +3453,9 @@
       <c r="L22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="24" t="s">
         <v>60</v>
       </c>
@@ -3482,12 +3469,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="16" thickBot="1"/>
-    <row r="24" spans="2:19">
-      <c r="B24" s="58" t="s">
+    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="58" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="17"/>
@@ -3529,9 +3516,9 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="59"/>
-      <c r="C25" s="52"/>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>71</v>
@@ -3571,9 +3558,9 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="59"/>
-      <c r="C26" s="52"/>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="60"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>71</v>
@@ -3613,9 +3600,9 @@
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="59"/>
-      <c r="C27" s="52"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="60"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -3655,9 +3642,9 @@
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="59"/>
-      <c r="C28" s="52"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -3697,9 +3684,9 @@
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="59"/>
-      <c r="C29" s="52"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>71</v>
@@ -3739,9 +3726,9 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="2:19" ht="16" thickBot="1">
-      <c r="B30" s="60"/>
-      <c r="C30" s="54"/>
+    <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="61"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>71</v>
@@ -3781,16 +3768,11 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="E20:H20"/>
@@ -3798,14 +3780,19 @@
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="N21:N22"/>
     <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
@@ -818,6 +818,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -830,48 +857,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -885,6 +882,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1303,8 +1303,8 @@
   </sheetPr>
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1332,79 +1332,79 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="50" t="s">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="48" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
       <c r="R4" s="39"/>
     </row>
     <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51" t="s">
+      <c r="H5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="53" t="s">
+      <c r="K5" s="44"/>
+      <c r="L5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52" t="s">
+      <c r="O5" s="40"/>
+      <c r="P5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="2:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="48"/>
       <c r="H6" s="21" t="s">
         <v>79</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="K6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="24" t="s">
         <v>60</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -1588,7 +1588,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="17">
         <v>2</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="17">
         <v>3</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="17">
         <v>4</v>
       </c>
@@ -1742,7 +1742,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="41"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="17">
         <v>5</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="12">
         <v>5</v>
       </c>
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="15">
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="17">
         <v>1</v>
       </c>
@@ -1993,7 +1993,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="17">
         <v>1</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17">
         <v>1</v>
       </c>
@@ -2089,7 +2089,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -2137,7 +2137,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="17">
         <v>1</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="17">
         <v>2</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -2281,44 +2281,44 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
     </row>
     <row r="25" spans="2:18" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
     </row>
     <row r="26" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
@@ -2341,6 +2341,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B24:R25"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:Q4"/>
@@ -2353,13 +2360,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B24:R25"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3354,93 +3354,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="L18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="50" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="62" t="s">
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="57" t="s">
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="53" t="s">
+      <c r="G21" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51" t="s">
+      <c r="I21" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="53" t="s">
+      <c r="L21" s="44"/>
+      <c r="M21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="44" t="s">
+      <c r="N21" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="44" t="s">
+      <c r="O21" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="52" t="s">
+      <c r="P21" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52" t="s">
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="52"/>
+      <c r="S21" s="40"/>
     </row>
     <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="21" t="s">
         <v>79</v>
       </c>
@@ -3453,9 +3453,9 @@
       <c r="L22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="54"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="24" t="s">
         <v>60</v>
       </c>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="17"/>
@@ -3517,8 +3517,8 @@
       <c r="S24" s="31"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>71</v>
@@ -3559,8 +3559,8 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="60"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>71</v>
@@ -3601,8 +3601,8 @@
       <c r="S26" s="31"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="60"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -3643,8 +3643,8 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="60"/>
-      <c r="C28" s="41"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -3685,8 +3685,8 @@
       <c r="S28" s="31"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="41"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>71</v>
@@ -3727,8 +3727,8 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>71</v>
@@ -3773,6 +3773,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="E20:H20"/>
@@ -3786,13 +3793,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jep2963\Documents\R\clubSandwich\paper_ClusterRobustTesting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14205" yWindow="0" windowWidth="34635" windowHeight="18600" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="620" windowWidth="34640" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulation Review t-test" sheetId="2" r:id="rId1"/>
-    <sheet name="data entry" sheetId="1" r:id="rId2"/>
-    <sheet name="extra" sheetId="3" r:id="rId3"/>
+    <sheet name="new version" sheetId="4" r:id="rId1"/>
+    <sheet name="Simulation Review t-test" sheetId="2" r:id="rId2"/>
+    <sheet name="data entry" sheetId="1" r:id="rId3"/>
+    <sheet name="extra" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Simulation Review t-test'!$B$2:$R$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Simulation Review t-test'!$B$2:$R$26</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="111">
   <si>
     <t>Article</t>
   </si>
@@ -510,12 +506,271 @@
   <si>
     <t>$</t>
   </si>
+  <si>
+    <t>Variable Type</t>
+  </si>
+  <si>
+    <t>c[50%, 15%, M], o[M]</t>
+  </si>
+  <si>
+    <t>c[50%]</t>
+  </si>
+  <si>
+    <t>c[10%]</t>
+  </si>
+  <si>
+    <t>c[M]</t>
+  </si>
+  <si>
+    <t>c[6%]</t>
+  </si>
+  <si>
+    <t>c[K]</t>
+  </si>
+  <si>
+    <t>o[M]</t>
+  </si>
+  <si>
+    <t>o[K]</t>
+  </si>
+  <si>
+    <t>c[10%,M], o[10%,M]</t>
+  </si>
+  <si>
+    <t>c[30%,M], o[30%,M]</t>
+  </si>
+  <si>
+    <t>c[15%]</t>
+  </si>
+  <si>
+    <t>o[10%]</t>
+  </si>
+  <si>
+    <r>
+      <t>H (5);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LN*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: Table refers to the table within the relevent article. N is the number of clusters, n is the number of observations within each cluster, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">p </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is the number of covariates in the regression model. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicates 'cluster level' covariate, while </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indicates 'observation level' covariate; % = percent taking value of one,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> M = symmetric continuous, K = skewed continuous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = inverse-heteroskedastic errors, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = heteroskedastic, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = random effects (moulton factor), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = correlated errors,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LN* = log-normal errors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; (#) indicates number of different models tested</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type I error ranges given over correlation structures, etc found in relevant tables. * indicates that nearly all used CR1 with N-p degrees of freedom, though BM used N - 1.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +816,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -636,7 +898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -710,8 +972,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -827,48 +1091,72 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,11 +1172,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -925,6 +1241,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -961,6 +1278,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1298,113 +1616,998 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <dimension ref="B3:P26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" style="23" customWidth="1"/>
+    <col min="13" max="13" width="6" style="23" customWidth="1"/>
+    <col min="14" max="14" width="5.5" style="23" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16">
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="2:16" ht="16">
+      <c r="D4" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="39"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1">
+      <c r="B5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="57"/>
+    </row>
+    <row r="6" spans="2:16" ht="23" customHeight="1" thickBot="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="2:16" ht="30">
+      <c r="B7" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="41">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41">
+        <v>20</v>
+      </c>
+      <c r="E7" s="41">
+        <v>10</v>
+      </c>
+      <c r="F7" s="41">
+        <v>4</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="42">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0.16189999999999999</v>
+      </c>
+      <c r="M7" s="42">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="N7" s="42">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="40">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="L8" s="40">
+        <v>0.105</v>
+      </c>
+      <c r="M8" s="40">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N8" s="40">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43">
+        <v>30</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
+      <c r="F9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="27">
+        <f>1-0.881</f>
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L9" s="27">
+        <f>1-0.783</f>
+        <v>0.21699999999999997</v>
+      </c>
+      <c r="M9" s="27">
+        <f>1-0.991</f>
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="N9" s="27">
+        <f>1-0.947</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="48"/>
+      <c r="C10" s="45">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45">
+        <v>30</v>
+      </c>
+      <c r="E10" s="45">
+        <v>1</v>
+      </c>
+      <c r="F10" s="45">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="46">
+        <f>1-0.926</f>
+        <v>7.3999999999999955E-2</v>
+      </c>
+      <c r="L10" s="46">
+        <f>1-0.682</f>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="M10" s="46">
+        <f>1-0.997</f>
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="N10" s="46">
+        <f>1-0.872</f>
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="48"/>
+      <c r="C11" s="45">
+        <v>3</v>
+      </c>
+      <c r="D11" s="45">
+        <v>30</v>
+      </c>
+      <c r="E11" s="45">
+        <v>1</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="46">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M11" s="46">
+        <f>1-0.95</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="N11" s="46">
+        <f>1-0.947</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="48"/>
+      <c r="C12" s="45">
+        <v>4</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="46">
+        <f>1-0.918</f>
+        <v>8.1999999999999962E-2</v>
+      </c>
+      <c r="L12" s="46">
+        <f>1-0.872</f>
+        <v>0.128</v>
+      </c>
+      <c r="M12" s="46">
+        <f>1-0.974</f>
+        <v>2.6000000000000023E-2</v>
+      </c>
+      <c r="N12" s="46">
+        <f>1-0.942</f>
+        <v>5.8000000000000052E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="48"/>
+      <c r="C13" s="45">
+        <v>5</v>
+      </c>
+      <c r="D13" s="45">
+        <v>50</v>
+      </c>
+      <c r="E13" s="45">
+        <v>6</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="46">
+        <v>0.06</v>
+      </c>
+      <c r="M13" s="46">
+        <f>1-0.952</f>
+        <v>4.8000000000000043E-2</v>
+      </c>
+      <c r="N13" s="46">
+        <f>1-0.947</f>
+        <v>5.3000000000000047E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="48"/>
+      <c r="C14" s="45">
+        <v>5</v>
+      </c>
+      <c r="D14" s="45">
+        <v>50</v>
+      </c>
+      <c r="E14" s="45">
+        <v>6</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="46">
+        <f>1-0.849</f>
+        <v>0.15100000000000002</v>
+      </c>
+      <c r="L14" s="46">
+        <f>1-0.775</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M14" s="46">
+        <f>1-0.987</f>
+        <v>1.3000000000000012E-2</v>
+      </c>
+      <c r="N14" s="46">
+        <f>1-0.949</f>
+        <v>5.1000000000000045E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="49"/>
+      <c r="C15" s="41">
+        <v>5</v>
+      </c>
+      <c r="D15" s="41">
+        <v>50</v>
+      </c>
+      <c r="E15" s="41">
+        <v>6</v>
+      </c>
+      <c r="F15" s="41">
+        <v>1</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="42">
+        <f>1-0.873</f>
+        <v>0.127</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.127</v>
+      </c>
+      <c r="M15" s="42">
+        <f>1-0.971</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+      <c r="N15" s="42">
+        <f>1-0.971</f>
+        <v>2.9000000000000026E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="43">
+        <v>1</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="43">
+        <v>1</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="70">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="L16" s="70">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="M16" s="70">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="N16" s="70">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="P16" s="29"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="48"/>
+      <c r="C17" s="45">
+        <v>1</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="71">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="L17" s="71">
+        <v>0.1464</v>
+      </c>
+      <c r="M17" s="72">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="N17" s="72">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="48"/>
+      <c r="C18" s="45">
+        <v>1</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="71">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="L18" s="71">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="M18" s="72">
+        <v>3.85E-2</v>
+      </c>
+      <c r="N18" s="72">
+        <v>5.79E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="48"/>
+      <c r="C19" s="45">
+        <v>1</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="71">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="L19" s="71">
+        <v>0.1305</v>
+      </c>
+      <c r="M19" s="72">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="N19" s="72">
+        <v>4.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="48"/>
+      <c r="C20" s="45">
+        <v>1</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="45">
+        <v>1</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="71">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="L20" s="71">
+        <v>0.1225</v>
+      </c>
+      <c r="M20" s="72">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="N20" s="72">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="48"/>
+      <c r="C21" s="45">
+        <v>1</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="45">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="71">
+        <v>2.87E-2</v>
+      </c>
+      <c r="L21" s="71">
+        <v>0.28489999999999999</v>
+      </c>
+      <c r="M21" s="72">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="N21" s="72">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="30">
+      <c r="B22" s="48"/>
+      <c r="C22" s="45">
+        <v>2</v>
+      </c>
+      <c r="D22" s="45">
+        <v>20</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="45">
+        <v>4</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="46">
+        <v>1.38E-2</v>
+      </c>
+      <c r="L22" s="46">
+        <v>0.1249</v>
+      </c>
+      <c r="M22" s="29">
+        <v>1.43E-2</v>
+      </c>
+      <c r="N22" s="29">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="31" thickBot="1">
+      <c r="B23" s="50"/>
+      <c r="C23" s="44">
+        <v>2</v>
+      </c>
+      <c r="D23" s="44">
+        <v>20</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="44">
+        <v>4</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="24">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="L23" s="24">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="M23" s="30">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="N23" s="30">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="O23" s="80"/>
+    </row>
+    <row r="24" spans="2:15" ht="8" customHeight="1">
+      <c r="B24" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="2:15" ht="83" customHeight="1">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" spans="2:15" ht="45" customHeight="1">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="B24:N25"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView showRuler="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="3" max="3" width="6.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="6.625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="7.875" customWidth="1"/>
-    <col min="13" max="13" width="8.125" customWidth="1"/>
-    <col min="14" max="14" width="6.875" customWidth="1"/>
-    <col min="15" max="15" width="6.125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="23" customWidth="1"/>
     <col min="16" max="16" width="6" style="23" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="23" customWidth="1"/>
-    <col min="18" max="18" width="8.375" style="23" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D4" s="41" t="s">
+    <row r="4" spans="2:18" ht="16">
+      <c r="D4" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="43" t="s">
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="41" t="s">
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:18" ht="15" customHeight="1">
+      <c r="B5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44" t="s">
+      <c r="H5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45" t="s">
+      <c r="K5" s="61"/>
+      <c r="L5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="40" t="s">
+      <c r="N5" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40" t="s">
+      <c r="O5" s="57"/>
+      <c r="P5" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="40"/>
-    </row>
-    <row r="6" spans="2:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="48"/>
+      <c r="Q5" s="57"/>
+    </row>
+    <row r="6" spans="2:18" ht="23" customHeight="1" thickBot="1">
+      <c r="B6" s="52"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="52"/>
       <c r="H6" s="21" t="s">
         <v>79</v>
       </c>
@@ -1417,8 +2620,8 @@
       <c r="K6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="48"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="24" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +2636,7 @@
       </c>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="32" t="s">
         <v>62</v>
       </c>
@@ -1483,7 +2686,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="33" t="s">
         <v>63</v>
       </c>
@@ -1533,8 +2736,8 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+    <row r="9" spans="2:18">
+      <c r="B9" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -1587,8 +2790,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
+    <row r="10" spans="2:18">
+      <c r="B10" s="48"/>
       <c r="C10" s="17">
         <v>2</v>
       </c>
@@ -1639,8 +2842,8 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
+    <row r="11" spans="2:18">
+      <c r="B11" s="48"/>
       <c r="C11" s="17">
         <v>3</v>
       </c>
@@ -1689,8 +2892,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
+    <row r="12" spans="2:18">
+      <c r="B12" s="48"/>
       <c r="C12" s="17">
         <v>4</v>
       </c>
@@ -1741,8 +2944,8 @@
         <v>5.8000000000000052E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+    <row r="13" spans="2:18">
+      <c r="B13" s="48"/>
       <c r="C13" s="17">
         <v>5</v>
       </c>
@@ -1791,8 +2994,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+    <row r="14" spans="2:18">
+      <c r="B14" s="48"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -1843,8 +3046,8 @@
         <v>5.1000000000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="51"/>
+    <row r="15" spans="2:18">
+      <c r="B15" s="49"/>
       <c r="C15" s="12">
         <v>5</v>
       </c>
@@ -1894,8 +3097,8 @@
         <v>2.9000000000000026E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:18">
+      <c r="B16" s="47" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="15">
@@ -1944,8 +3147,8 @@
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
+    <row r="17" spans="2:18">
+      <c r="B17" s="48"/>
       <c r="C17" s="17">
         <v>1</v>
       </c>
@@ -1992,8 +3195,8 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+    <row r="18" spans="2:18">
+      <c r="B18" s="48"/>
       <c r="C18" s="17">
         <v>1</v>
       </c>
@@ -2040,8 +3243,8 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+    <row r="19" spans="2:18">
+      <c r="B19" s="48"/>
       <c r="C19" s="17">
         <v>1</v>
       </c>
@@ -2088,8 +3291,8 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
+    <row r="20" spans="2:18">
+      <c r="B20" s="48"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -2136,8 +3339,8 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
+    <row r="21" spans="2:18">
+      <c r="B21" s="48"/>
       <c r="C21" s="17">
         <v>1</v>
       </c>
@@ -2184,8 +3387,8 @@
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+    <row r="22" spans="2:18">
+      <c r="B22" s="48"/>
       <c r="C22" s="17">
         <v>2</v>
       </c>
@@ -2232,8 +3435,8 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="52"/>
+    <row r="23" spans="2:18" ht="16.5" thickBot="1">
+      <c r="B23" s="50"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -2280,7 +3483,7 @@
         <v>5.8599999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="8" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>70</v>
       </c>
@@ -2301,7 +3504,7 @@
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
     </row>
-    <row r="25" spans="2:18" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="83" customHeight="1">
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54"/>
@@ -2320,7 +3523,7 @@
       <c r="Q25" s="54"/>
       <c r="R25" s="54"/>
     </row>
-    <row r="26" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="45" customHeight="1">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2341,14 +3544,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B24:R25"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="D4:G4"/>
@@ -2360,6 +3555,14 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B24:R25"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2372,58 +3575,58 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5"/>
-    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="9" width="11" style="2"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G3" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55" t="s">
+    <row r="3" spans="2:20">
+      <c r="G3" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56" t="s">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56" t="s">
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="56"/>
+      <c r="O3" s="63"/>
       <c r="P3" t="s">
         <v>56</v>
       </c>
@@ -2431,7 +3634,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -2531,7 +3734,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2572,7 +3775,7 @@
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2613,7 +3816,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2654,7 +3857,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2695,7 +3898,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20">
       <c r="C10">
         <v>1</v>
       </c>
@@ -2736,7 +3939,7 @@
         <v>0.3352</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20">
       <c r="C11">
         <v>2</v>
       </c>
@@ -2783,7 +3986,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20">
       <c r="C12">
         <v>2</v>
       </c>
@@ -2826,7 +4029,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" ht="31.5">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -2885,7 +4088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20">
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
@@ -2893,7 +4096,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" ht="31.5">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +4158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20">
       <c r="C16">
         <v>2</v>
       </c>
@@ -3014,7 +4217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="C17">
         <v>3</v>
       </c>
@@ -3063,7 +4266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="C18">
         <v>4</v>
       </c>
@@ -3122,7 +4325,7 @@
         <v>6.2999999999999945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="C19">
         <v>5</v>
       </c>
@@ -3169,7 +4372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="C20">
         <v>5</v>
       </c>
@@ -3219,7 +4422,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="C21">
         <v>5</v>
       </c>
@@ -3267,13 +4470,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" ht="31.5">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
@@ -3350,97 +4553,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B20:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="L18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="L18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E20" s="41" t="s">
+    <row r="20" spans="2:19" ht="16">
+      <c r="E20" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="61" t="s">
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62" t="s">
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44" t="s">
+      <c r="I21" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="45" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="47" t="s">
+      <c r="N21" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="47" t="s">
+      <c r="O21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="P21" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40" t="s">
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="S21" s="57"/>
+    </row>
+    <row r="22" spans="2:19" ht="16.5" thickBot="1">
+      <c r="B22" s="56"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="21" t="s">
         <v>79</v>
       </c>
@@ -3453,9 +4656,9 @@
       <c r="L22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
       <c r="P22" s="24" t="s">
         <v>60</v>
       </c>
@@ -3469,12 +4672,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="58" t="s">
+    <row r="23" spans="2:19" ht="16.5" thickBot="1"/>
+    <row r="24" spans="2:19">
+      <c r="B24" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="65" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="17"/>
@@ -3516,9 +4719,9 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="50"/>
+    <row r="25" spans="2:19">
+      <c r="B25" s="67"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>71</v>
@@ -3558,9 +4761,9 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="50"/>
+    <row r="26" spans="2:19">
+      <c r="B26" s="67"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>71</v>
@@ -3600,9 +4803,9 @@
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="50"/>
+    <row r="27" spans="2:19">
+      <c r="B27" s="67"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -3642,9 +4845,9 @@
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="50"/>
+    <row r="28" spans="2:19">
+      <c r="B28" s="67"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -3684,9 +4887,9 @@
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="50"/>
+    <row r="29" spans="2:19">
+      <c r="B29" s="67"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>71</v>
@@ -3726,9 +4929,9 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="60"/>
-      <c r="C30" s="52"/>
+    <row r="30" spans="2:19" ht="16.5" thickBot="1">
+      <c r="B30" s="68"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>71</v>
@@ -3768,18 +4971,11 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2">
       <c r="B35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="E20:H20"/>
@@ -3793,6 +4989,13 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:M22"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
+++ b/paper_ClusterRobustTesting/CRVE_sims_table_full.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jep2963\Documents\R\clubSandwich\paper_ClusterRobustTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="620" windowWidth="34640" windowHeight="18600" tabRatio="500"/>
+    <workbookView xWindow="3975" yWindow="615" windowWidth="34635" windowHeight="18600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="new version" sheetId="4" r:id="rId1"/>
@@ -15,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Simulation Review t-test'!$B$2:$R$26</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1103,6 +1108,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1115,30 +1154,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1154,55 +1190,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1618,98 +1623,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="6.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="8.125" customWidth="1"/>
+    <col min="11" max="11" width="6.875" customWidth="1"/>
+    <col min="12" max="12" width="6.125" style="23" customWidth="1"/>
     <col min="13" max="13" width="6" style="23" customWidth="1"/>
     <col min="14" max="14" width="5.5" style="23" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="23" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:16" ht="16">
-      <c r="D4" s="58" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59" t="s">
+      <c r="J4" s="56"/>
+      <c r="K4" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="39"/>
     </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K5" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57" t="s">
+      <c r="L5" s="69"/>
+      <c r="M5" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="57"/>
-    </row>
-    <row r="6" spans="2:16" ht="23" customHeight="1" thickBot="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="52"/>
+      <c r="N5" s="69"/>
+    </row>
+    <row r="6" spans="2:16" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="24" t="s">
         <v>60</v>
       </c>
@@ -1724,7 +1729,7 @@
       </c>
       <c r="O6"/>
     </row>
-    <row r="7" spans="2:16" ht="30">
+    <row r="7" spans="2:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>62</v>
       </c>
@@ -1743,7 +1748,7 @@
       <c r="G7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="50" t="s">
         <v>97</v>
       </c>
       <c r="I7" s="41" t="s">
@@ -1765,7 +1770,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>63</v>
       </c>
@@ -1784,7 +1789,7 @@
       <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="51" t="s">
         <v>98</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -1806,8 +1811,8 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="47" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="43">
@@ -1825,7 +1830,7 @@
       <c r="G9" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="52" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="43" t="s">
@@ -1851,8 +1856,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="48"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
       <c r="C10" s="45">
         <v>2</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="G10" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="53" t="s">
         <v>99</v>
       </c>
       <c r="I10" s="45" t="s">
@@ -1894,8 +1899,8 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="48"/>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
       <c r="C11" s="45">
         <v>3</v>
       </c>
@@ -1911,7 +1916,7 @@
       <c r="G11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="53" t="s">
         <v>98</v>
       </c>
       <c r="I11" s="45" t="s">
@@ -1935,8 +1940,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
       <c r="C12" s="45">
         <v>4</v>
       </c>
@@ -1952,7 +1957,7 @@
       <c r="G12" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="53" t="s">
         <v>100</v>
       </c>
       <c r="I12" s="45" t="s">
@@ -1978,8 +1983,8 @@
         <v>5.8000000000000052E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="48"/>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="60"/>
       <c r="C13" s="45">
         <v>5</v>
       </c>
@@ -1995,7 +2000,7 @@
       <c r="G13" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="53" t="s">
         <v>98</v>
       </c>
       <c r="I13" s="45" t="s">
@@ -2019,8 +2024,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="48"/>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
       <c r="C14" s="45">
         <v>5</v>
       </c>
@@ -2036,7 +2041,7 @@
       <c r="G14" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="53" t="s">
         <v>101</v>
       </c>
       <c r="I14" s="45" t="s">
@@ -2062,8 +2067,8 @@
         <v>5.1000000000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="49"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
       <c r="C15" s="41">
         <v>5</v>
       </c>
@@ -2079,7 +2084,7 @@
       <c r="G15" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="75" t="s">
+      <c r="H15" s="50" t="s">
         <v>102</v>
       </c>
       <c r="I15" s="41" t="s">
@@ -2104,8 +2109,8 @@
         <v>2.9000000000000026E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="47" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="59" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="43">
@@ -2123,7 +2128,7 @@
       <c r="G16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="52" t="s">
         <v>98</v>
       </c>
       <c r="I16" s="43" t="s">
@@ -2132,22 +2137,22 @@
       <c r="J16" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="70">
+      <c r="K16" s="47">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="L16" s="70">
+      <c r="L16" s="47">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="M16" s="70">
+      <c r="M16" s="47">
         <v>4.1700000000000001E-2</v>
       </c>
-      <c r="N16" s="70">
+      <c r="N16" s="47">
         <v>5.0200000000000002E-2</v>
       </c>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="48"/>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
       <c r="C17" s="45">
         <v>1</v>
       </c>
@@ -2163,7 +2168,7 @@
       <c r="G17" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="53" t="s">
         <v>107</v>
       </c>
       <c r="I17" s="45" t="s">
@@ -2172,21 +2177,21 @@
       <c r="J17" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="48">
         <v>0.10390000000000001</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="48">
         <v>0.1464</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="49">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="49">
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="48"/>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="60"/>
       <c r="C18" s="45">
         <v>1</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="G18" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="53" t="s">
         <v>108</v>
       </c>
       <c r="I18" s="45" t="s">
@@ -2211,21 +2216,21 @@
       <c r="J18" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="48">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="48">
         <v>0.19040000000000001</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="49">
         <v>3.85E-2</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="49">
         <v>5.79E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="48"/>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="60"/>
       <c r="C19" s="45">
         <v>1</v>
       </c>
@@ -2241,7 +2246,7 @@
       <c r="G19" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="53" t="s">
         <v>100</v>
       </c>
       <c r="I19" s="45" t="s">
@@ -2250,21 +2255,21 @@
       <c r="J19" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="48">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="48">
         <v>0.1305</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="49">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="49">
         <v>4.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="48"/>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="60"/>
       <c r="C20" s="45">
         <v>1</v>
       </c>
@@ -2280,7 +2285,7 @@
       <c r="G20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="53" t="s">
         <v>103</v>
       </c>
       <c r="I20" s="45" t="s">
@@ -2289,21 +2294,21 @@
       <c r="J20" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="48">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="48">
         <v>0.1225</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="49">
         <v>3.6700000000000003E-2</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="49">
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="48"/>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
       <c r="C21" s="45">
         <v>1</v>
       </c>
@@ -2319,7 +2324,7 @@
       <c r="G21" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="53" t="s">
         <v>104</v>
       </c>
       <c r="I21" s="45" t="s">
@@ -2328,21 +2333,21 @@
       <c r="J21" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="71">
+      <c r="K21" s="48">
         <v>2.87E-2</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="48">
         <v>0.28489999999999999</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="49">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="49">
         <v>3.9800000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="30">
-      <c r="B22" s="48"/>
+    <row r="22" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
       <c r="C22" s="45">
         <v>2</v>
       </c>
@@ -2358,7 +2363,7 @@
       <c r="G22" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="78" t="s">
+      <c r="H22" s="53" t="s">
         <v>105</v>
       </c>
       <c r="I22" s="45" t="s">
@@ -2380,8 +2385,8 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="31" thickBot="1">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="62"/>
       <c r="C23" s="44">
         <v>2</v>
       </c>
@@ -2397,7 +2402,7 @@
       <c r="G23" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="79" t="s">
+      <c r="H23" s="54" t="s">
         <v>106</v>
       </c>
       <c r="I23" s="44" t="s">
@@ -2418,43 +2423,43 @@
       <c r="N23" s="30">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="O23" s="80"/>
-    </row>
-    <row r="24" spans="2:15" ht="8" customHeight="1">
-      <c r="B24" s="53" t="s">
+      <c r="O23" s="55"/>
+    </row>
+    <row r="24" spans="2:15" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
       <c r="O24" s="38"/>
     </row>
-    <row r="25" spans="2:15" ht="83" customHeight="1">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
+    <row r="25" spans="2:15" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
       <c r="O25" s="38"/>
     </row>
-    <row r="26" spans="2:15" ht="45" customHeight="1">
+    <row r="26" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -2472,6 +2477,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B24:N25"/>
     <mergeCell ref="B9:B15"/>
@@ -2488,7 +2494,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2501,7 +2506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:R26"/>
@@ -2510,104 +2515,104 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="6.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
+    <col min="6" max="6" width="6.625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.1640625" customWidth="1"/>
-    <col min="14" max="14" width="6.83203125" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="7.875" customWidth="1"/>
+    <col min="13" max="13" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="6.875" customWidth="1"/>
+    <col min="15" max="15" width="6.125" style="23" customWidth="1"/>
     <col min="16" max="16" width="6" style="23" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="23" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="23" customWidth="1"/>
+    <col min="18" max="18" width="8.375" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:18" ht="16">
-      <c r="D4" s="58" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="60" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="58" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59" t="s">
+      <c r="M4" s="56"/>
+      <c r="N4" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
       <c r="R4" s="39"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F5" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61" t="s">
+      <c r="H5" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="55" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="M5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57" t="s">
+      <c r="O5" s="69"/>
+      <c r="P5" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="57"/>
-    </row>
-    <row r="6" spans="2:18" ht="23" customHeight="1" thickBot="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="52"/>
+      <c r="Q5" s="69"/>
+    </row>
+    <row r="6" spans="2:18" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="21" t="s">
         <v>79</v>
       </c>
@@ -2620,8 +2625,8 @@
       <c r="K6" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="52"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="24" t="s">
         <v>60</v>
       </c>
@@ -2636,7 +2641,7 @@
       </c>
       <c r="R6"/>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>62</v>
       </c>
@@ -2686,7 +2691,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>63</v>
       </c>
@@ -2736,8 +2741,8 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="47" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="59" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="15">
@@ -2790,8 +2795,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="48"/>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
       <c r="C10" s="17">
         <v>2</v>
       </c>
@@ -2842,8 +2847,8 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="48"/>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
       <c r="C11" s="17">
         <v>3</v>
       </c>
@@ -2892,8 +2897,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="48"/>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
       <c r="C12" s="17">
         <v>4</v>
       </c>
@@ -2944,8 +2949,8 @@
         <v>5.8000000000000052E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="48"/>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="60"/>
       <c r="C13" s="17">
         <v>5</v>
       </c>
@@ -2994,8 +2999,8 @@
         <v>5.3000000000000047E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="48"/>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -3046,8 +3051,8 @@
         <v>5.1000000000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="B15" s="49"/>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="61"/>
       <c r="C15" s="12">
         <v>5</v>
       </c>
@@ -3097,8 +3102,8 @@
         <v>2.9000000000000026E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="47" t="s">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="59" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="15">
@@ -3147,8 +3152,8 @@
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="48"/>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="60"/>
       <c r="C17" s="17">
         <v>1</v>
       </c>
@@ -3195,8 +3200,8 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="48"/>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="60"/>
       <c r="C18" s="17">
         <v>1</v>
       </c>
@@ -3243,8 +3248,8 @@
         <v>6.1899999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="48"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="60"/>
       <c r="C19" s="17">
         <v>1</v>
       </c>
@@ -3291,8 +3296,8 @@
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="48"/>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="60"/>
       <c r="C20" s="17">
         <v>1</v>
       </c>
@@ -3339,8 +3344,8 @@
         <v>6.0100000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="48"/>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="60"/>
       <c r="C21" s="17">
         <v>1</v>
       </c>
@@ -3387,8 +3392,8 @@
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="48"/>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
       <c r="C22" s="17">
         <v>2</v>
       </c>
@@ -3435,8 +3440,8 @@
         <v>6.0499999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:18" ht="16.5" thickBot="1">
-      <c r="B23" s="50"/>
+    <row r="23" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="62"/>
       <c r="C23" s="22">
         <v>2</v>
       </c>
@@ -3483,47 +3488,47 @@
         <v>5.8599999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="8" customHeight="1">
-      <c r="B24" s="53" t="s">
+    <row r="24" spans="2:18" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-    </row>
-    <row r="25" spans="2:18" ht="83" customHeight="1">
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-    </row>
-    <row r="26" spans="2:18" ht="45" customHeight="1">
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+    </row>
+    <row r="25" spans="2:18" ht="83.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+    </row>
+    <row r="26" spans="2:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
@@ -3544,6 +3549,14 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B24:R25"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N5:O5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="D4:G4"/>
@@ -3555,14 +3568,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B24:R25"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3583,50 +3588,50 @@
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
     <col min="5" max="5" width="11" style="5"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
     <col min="7" max="9" width="11" style="2"/>
     <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="12" width="11" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
       <c r="N2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
-      <c r="G3" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63" t="s">
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="63"/>
+      <c r="O3" s="74"/>
       <c r="P3" t="s">
         <v>56</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>0.15160000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -3816,7 +3821,7 @@
         <v>0.2344</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -3857,7 +3862,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1</v>
       </c>
@@ -3939,7 +3944,7 @@
         <v>0.3352</v>
       </c>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>2</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>0.1249</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>2</v>
       </c>
@@ -4029,7 +4034,7 @@
         <v>5.8799999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="31.5">
+    <row r="13" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
       <c r="G14" s="8"/>
@@ -4096,7 +4101,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="2:20" ht="31.5">
+    <row r="15" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -4325,7 +4330,7 @@
         <v>6.2999999999999945E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -4422,7 +4427,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -4470,13 +4475,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="2:20" ht="31.5">
+    <row r="23" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
@@ -4561,89 +4566,89 @@
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="20" spans="2:19" ht="16">
-      <c r="E20" s="58" t="s">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E20" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="60" t="s">
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="69" t="s">
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="64" t="s">
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-    </row>
-    <row r="21" spans="2:19">
-      <c r="B21" s="55" t="s">
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61" t="s">
+      <c r="I21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="61"/>
-      <c r="M21" s="55" t="s">
+      <c r="L21" s="72"/>
+      <c r="M21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="N21" s="51" t="s">
+      <c r="N21" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="51" t="s">
+      <c r="O21" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="57" t="s">
+      <c r="P21" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57" t="s">
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="57"/>
-    </row>
-    <row r="22" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B22" s="56"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
+      <c r="S21" s="69"/>
+    </row>
+    <row r="22" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="66"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="21" t="s">
         <v>79</v>
       </c>
@@ -4656,9 +4661,9 @@
       <c r="L22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
       <c r="P22" s="24" t="s">
         <v>60</v>
       </c>
@@ -4672,12 +4677,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="16.5" thickBot="1"/>
-    <row r="24" spans="2:19">
-      <c r="B24" s="66" t="s">
+    <row r="23" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="75" t="s">
         <v>75</v>
       </c>
       <c r="D24" s="17"/>
@@ -4719,9 +4724,9 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="2:19">
-      <c r="B25" s="67"/>
-      <c r="C25" s="48"/>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="77"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
         <v>71</v>
@@ -4761,9 +4766,9 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="2:19">
-      <c r="B26" s="67"/>
-      <c r="C26" s="48"/>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="77"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
         <v>71</v>
@@ -4803,9 +4808,9 @@
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="2:19">
-      <c r="B27" s="67"/>
-      <c r="C27" s="48"/>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="77"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
         <v>71</v>
@@ -4845,9 +4850,9 @@
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="2:19">
-      <c r="B28" s="67"/>
-      <c r="C28" s="48"/>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="77"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
         <v>71</v>
@@ -4887,9 +4892,9 @@
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="2:19">
-      <c r="B29" s="67"/>
-      <c r="C29" s="48"/>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="77"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17" t="s">
         <v>71</v>
@@ -4929,9 +4934,9 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="2:19" ht="16.5" thickBot="1">
-      <c r="B30" s="68"/>
-      <c r="C30" s="50"/>
+    <row r="30" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="78"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
         <v>71</v>
@@ -4971,11 +4976,18 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="C24:C30"/>
     <mergeCell ref="B24:B30"/>
     <mergeCell ref="E20:H20"/>
@@ -4989,13 +5001,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:M22"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
